--- a/DOM_Banner/output/dept_banner/Madhav Chopra_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Madhav Chopra_2023.xlsx
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2054030870", "https://openalex.org/W2746697475", "https://openalex.org/W2119370346", "https://openalex.org/W2387119810", "https://openalex.org/W2057789011", "https://openalex.org/W2379005818", "https://openalex.org/W2345952778", "https://openalex.org/W2020003734", "https://openalex.org/W2366749884", "https://openalex.org/W2021594776")</t>
+          <t>c("https://openalex.org/W574450007", "https://openalex.org/W3206700233", "https://openalex.org/W2046790913", "https://openalex.org/W2097247491", "https://openalex.org/W4313415934", "https://openalex.org/W2144223470", "https://openalex.org/W2047056412", "https://openalex.org/W2359706137", "https://openalex.org/W2550106533", "https://openalex.org/W4388073435")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1084,22 +1084,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S76900504</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0012-3692</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Madhav Chopra_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Madhav Chopra_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Mayo Clinic, Phoenix AZ, USA; Department of Radiology, Mayo Clinic, Phoenix, AZ, USA; Department of Laboratory Medicine and Pathology, Mayo Clinic, Phoenix, AZ, USA; Division of Pulmonary, The University of Arizona, Tucson, AZ, USA; Division of Rheumatology, University of California San Francisco in Fresno, Fresno, CA, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388014466</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Late Onset of Rivaroxaban-Associated Anti-Neutrophil Cytoplasmic Antibody–Associated Vasculitis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Investigative Medicine High Impact Case Reports</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/23247096231207689</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37902294</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/23247096231207689</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Internal Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona School of Medicine Pulmonary and Critical Care Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606384</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A Confusing Case of Bloody Cough: Not Everything is TB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4137</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4137</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Internal Medicine, Penn State Milton S Hershey Medical Center, Hershey, PA, United States; Pulmonary, Allergy, and Critical Care Medicine, Penn State Milton S Hershey Medical Center, Hershey, PA, United States; Pulmonary, Allergy, and Critical Care Medicine, University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606633</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>What Is Blocking the Bronchus? A Case of Pulmonary Extramedullary Plasmacytoma Presenting as Right Mainstem Bronchial Obstruction</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4132</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4132</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387248955</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>EARLIER REFERRAL FOR BRONCHOSCOPY IN IMMUNOCOMPROMISED PATIENT</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2023.07.3391</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2023.07.3391</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sooraj Kumar, J. Rathbun, Madhav Chopra</t>
+          <t>Billie Bixby, Lukáš Vrba, J. Lenka, Marc M. Oshiro, George S. Watts, Trina Hughes, Heidi L. Erickson, Madhav Chopra, James Knepler, Kenneth S. Knox, Lisa Jarnagin, Raed Alalawi, Mrinalini Kala, Richard Bernert, Joseph I. Routh, Denise J. Roe, Linda L. Garland, Bernard W. Futscher, Mark A. Nelson</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387254052</t>
+          <t>University of Arizona; ; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; ; ; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BRAIN DRAIN: A CASE OF VENTRICULOPLEURAL SHUNT WITH OVERDRAINAGE CAUSING SYMPTOMATIC PLEURAL EFFUSION</t>
+          <t>https://openalex.org/W4387446382</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Cell-Free DNA Methylation Analysis as a Marker of Malignancy in Pleural Fluid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.2314</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3390107/v1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.2314</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37886511</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-3390107/v1</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Billie Bixby, Lukáš Vrba, J. Lenka, Marc M. Oshiro, George S. Watts, Trina Hughes, Heidi L. Erickson, Madhav Chopra, James Knepler, Kenneth S. Knox, Lisa Jarnagin, Raed Alalawi, Mrinalini Kala, Richard Bernert, Joseph I. Routh, Denise J. Roe, Linda L. Garland, Bernard W. Futscher, Mark A. Nelson</t>
+          <t>Sooraj Kumar, J. Rathbun, Madhav Chopra</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387446382</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cell-Free DNA Methylation Analysis as a Marker of Malignancy in Pleural Fluid</t>
+          <t>https://openalex.org/W4387254052</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>BRAIN DRAIN: A CASE OF VENTRICULOPLEURAL SHUNT WITH OVERDRAINAGE CAUSING SYMPTOMATIC PLEURAL EFFUSION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3390107/v1</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.2314</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37886511</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3390107/v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.2314</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
